--- a/documentation/Project Review Spreadsheet.xlsx
+++ b/documentation/Project Review Spreadsheet.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df0dfb633300bcc8/Documents/COSC 412 SOFWARE ENGINEERING/Healthy Competition/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{3753D19D-7C3E-4FAA-ADB9-8037F3D54DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0849B3B0-0607-443C-8522-712856D2238C}"/>
+  <bookViews>
+    <workbookView minimized="1" xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t xml:space="preserve">Category: </t>
   </si>
@@ -160,9 +169,6 @@
     <t>Brad</t>
   </si>
   <si>
-    <t>Project log is updated every meeting - changes reflected in SPMP</t>
-  </si>
-  <si>
     <t>README file is updated regularly</t>
   </si>
   <si>
@@ -172,34 +178,45 @@
     <t>Ensure all sensitive information such as passwords are encrypted and in compliance with Auth0 standards.</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Code with updated tools and libraries.</t>
   </si>
   <si>
-    <t>periodically update packages</t>
-  </si>
-  <si>
     <t xml:space="preserve">API keys + Auth0 will be implemented in a safe secure way. </t>
+  </si>
+  <si>
+    <t>Project log is updated every meeting - changes reflected in SPMP and Gantt chart.</t>
+  </si>
+  <si>
+    <t>Preventing user from leaving website to ensure smooth client experience.</t>
+  </si>
+  <si>
+    <t>Periodically update packages</t>
+  </si>
+  <si>
+    <t>Validate security and encryption by testing login / log off  feature.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -209,7 +226,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -249,62 +266,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -494,25 +502,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="91.43"/>
-    <col customWidth="1" min="3" max="3" width="29.71"/>
-    <col customWidth="1" min="4" max="4" width="70.86"/>
+    <col min="2" max="2" width="91.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -534,7 +547,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -546,7 +559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -558,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -570,13 +583,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -584,7 +597,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -596,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -608,7 +621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>19</v>
@@ -620,7 +633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -632,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>22</v>
@@ -644,7 +657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -652,7 +665,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17" s="8"/>
       <c r="B17" s="7" t="s">
         <v>25</v>
@@ -664,7 +677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18" s="8"/>
       <c r="B18" s="7" t="s">
         <v>28</v>
@@ -676,13 +689,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
@@ -690,7 +703,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22" s="11"/>
       <c r="B22" s="10" t="s">
         <v>31</v>
@@ -702,7 +715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23" s="11"/>
       <c r="B23" s="10" t="s">
         <v>33</v>
@@ -714,7 +727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24" s="11"/>
       <c r="B24" s="10" t="s">
         <v>34</v>
@@ -726,7 +739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="10" t="s">
         <v>36</v>
@@ -738,7 +751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26" s="11"/>
       <c r="B26" s="10" t="s">
         <v>38</v>
@@ -750,7 +763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
@@ -758,7 +771,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4">
       <c r="A29" s="13"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -770,7 +783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4">
       <c r="A30" s="13"/>
       <c r="B30" s="12" t="s">
         <v>44</v>
@@ -782,7 +795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4">
       <c r="A31" s="13"/>
       <c r="B31" s="12" t="s">
         <v>47</v>
@@ -791,70 +804,70 @@
         <v>48</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="13"/>
       <c r="B32" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4">
       <c r="A34" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4">
       <c r="A35" s="15"/>
       <c r="B35" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="15"/>
       <c r="B36" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="15"/>
       <c r="B37" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>